--- a/PCB/Outputs/TAS5711_v1_0A_BOM.xlsx
+++ b/PCB/Outputs/TAS5711_v1_0A_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\NAS\home\Projects\PCB Design\RGB Clock\Audio\PCB\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00EB81E5-48FE-4EA7-94B7-940B58FFCCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A79B3CD-87C0-410A-AD61-A4772DDBA243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35055" yWindow="4830" windowWidth="18900" windowHeight="10920" xr2:uid="{FF3EC7A2-46F1-408A-96D0-A29F7AD9E9E6}"/>
+    <workbookView xWindow="2040" yWindow="2040" windowWidth="18900" windowHeight="10920" xr2:uid="{8E3A111A-6B88-4C1C-81F5-940792873B92}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS5711_v1_0A_BOM" sheetId="1" r:id="rId1"/>
@@ -743,7 +743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E241596-6E47-4E66-8F6E-187338B4FE0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A043427-1FE8-41B0-BBDB-C26557374F77}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
